--- a/tut05/output/0401ME06.xlsx
+++ b/tut05/output/0401ME06.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.408163265306122</v>
+        <v>6.41</v>
       </c>
       <c r="C6" t="n">
-        <v>5.727272727272728</v>
+        <v>5.73</v>
       </c>
       <c r="D6" t="n">
-        <v>7.297872340425532</v>
+        <v>7.3</v>
       </c>
       <c r="E6" t="n">
-        <v>7.020408163265306</v>
+        <v>7.02</v>
       </c>
       <c r="F6" t="n">
-        <v>6.260869565217392</v>
+        <v>6.26</v>
       </c>
       <c r="G6" t="n">
-        <v>7.086956521739131</v>
+        <v>7.09</v>
       </c>
       <c r="H6" t="n">
         <v>7.7</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.408163265306122</v>
+        <v>6.41</v>
       </c>
       <c r="C8" t="n">
-        <v>6.086021505376344</v>
+        <v>6.09</v>
       </c>
       <c r="D8" t="n">
-        <v>6.492857142857143</v>
+        <v>6.49</v>
       </c>
       <c r="E8" t="n">
-        <v>6.62962962962963</v>
+        <v>6.63</v>
       </c>
       <c r="F8" t="n">
-        <v>6.557446808510639</v>
+        <v>6.56</v>
       </c>
       <c r="G8" t="n">
-        <v>6.644128113879003</v>
+        <v>6.64</v>
       </c>
       <c r="H8" t="n">
-        <v>6.775700934579439</v>
+        <v>6.78</v>
       </c>
       <c r="I8" t="n">
-        <v>6.78393351800554</v>
+        <v>6.78</v>
       </c>
     </row>
   </sheetData>
